--- a/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
+++ b/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekarshakova\Documents\UiPath\CBR\CentralBankRF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E111C-CB4E-4E13-8014-D2E1F0F0877B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AA9D3A-8C0D-474C-A6E7-21A8E94CE497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="3730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-158C-479D-ACF8-7C4211EE1D89}"/>
+              <c16:uniqueId val="{00000000-BFF6-4386-A2A1-F2C16E6A22E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -180,7 +180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-158C-479D-ACF8-7C4211EE1D89}"/>
+              <c16:uniqueId val="{00000001-BFF6-4386-A2A1-F2C16E6A22E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -193,11 +193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="327710624"/>
-        <c:axId val="327714560"/>
+        <c:axId val="323981832"/>
+        <c:axId val="323983472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327710624"/>
+        <c:axId val="323981832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -206,7 +206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327714560"/>
+        <c:crossAx val="323983472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -214,7 +214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327714560"/>
+        <c:axId val="323983472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -225,7 +225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327710624"/>
+        <c:crossAx val="323981832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -269,7 +269,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B92623-608E-4A82-8C52-C7D9D3D47DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61599DED-A32B-402B-873D-E9E9FC7F4E9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +590,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
+++ b/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekarshakova\Documents\UiPath\CBR\CentralBankRF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AA9D3A-8C0D-474C-A6E7-21A8E94CE497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61EA0E-5FE2-4A80-A8AF-28E5F6662FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="3730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,200 +94,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RC'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>44208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFF6-4386-A2A1-F2C16E6A22E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RC'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.0000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>57.511200000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.341000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.0565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.214100000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFF6-4386-A2A1-F2C16E6A22E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="323981832"/>
-        <c:axId val="323983472"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="323981832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323983472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="323983472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323981832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61599DED-A32B-402B-873D-E9E9FC7F4E9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +396,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,6 +478,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
+++ b/CentralBankRF/RC_F04_01_2021_T15_01_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekarshakova\Documents\UiPath\CBR\CentralBankRF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61EA0E-5FE2-4A80-A8AF-28E5F6662FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14E90F-CDF3-437B-A94E-C203D7954394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="3730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,6 +476,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
